--- a/EZEIZA.xlsx
+++ b/EZEIZA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmenghi\Desktop\RUTEO\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E73A4D6-6BA6-43C8-8B44-EE192BA0EE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092CE666-0417-433C-ADE9-BDF9174BA198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00D04582-565C-484B-A37C-AFFC05FE42AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86CC39E7-9FB5-4ACF-85A1-98F761F69AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="492">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,934 +174,1330 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>1225396911</t>
-  </si>
-  <si>
-    <t>INSTITUTO ONCOLOGICO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>PEDRO DE ONATE 253</t>
+    <t>1227670773</t>
+  </si>
+  <si>
+    <t>CENTRO DE INVESTIGACIONES CLINICAS</t>
+  </si>
+  <si>
+    <t>320 L PAGANINI ROSARIO</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>ROSARIO</t>
+  </si>
+  <si>
+    <t>Santa Fé</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Ocasa Inc (Miami)</t>
+  </si>
+  <si>
+    <t>543415311315</t>
+  </si>
+  <si>
+    <t>M3046216</t>
+  </si>
+  <si>
+    <t>000000001227670773</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2152</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-KITS</t>
+  </si>
+  <si>
+    <t>Envio</t>
+  </si>
+  <si>
+    <t>20251029</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carga kits  internacional</t>
+  </si>
+  <si>
+    <t>ROS</t>
+  </si>
+  <si>
+    <t>PENDIENTE DE DISTRIBUCION</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Carga kits  internacional</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1227936328</t>
+  </si>
+  <si>
+    <t>L PAGANINI 320 324</t>
+  </si>
+  <si>
+    <t>SANTA FE</t>
+  </si>
+  <si>
+    <t>Ocasa Inc ( Los Angeles)</t>
+  </si>
+  <si>
+    <t>193413657714</t>
+  </si>
+  <si>
+    <t>M3118583</t>
+  </si>
+  <si>
+    <t>000000001227936328</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 KITS</t>
+  </si>
+  <si>
+    <t>20251103</t>
+  </si>
+  <si>
+    <t>1227936682</t>
+  </si>
+  <si>
+    <t>M3118588</t>
+  </si>
+  <si>
+    <t>000000001227936682</t>
+  </si>
+  <si>
+    <t>1227936791</t>
+  </si>
+  <si>
+    <t>FUNDACION SCHERBOVSKY</t>
+  </si>
+  <si>
+    <t>JOSE FEDERICO MORENO 2760</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>192612441178</t>
+  </si>
+  <si>
+    <t>M3070695</t>
+  </si>
+  <si>
+    <t>000000001227936791</t>
+  </si>
+  <si>
+    <t>5500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEEDLES</t>
+  </si>
+  <si>
+    <t>MDZ</t>
+  </si>
+  <si>
+    <t>1228104267</t>
+  </si>
+  <si>
+    <t>CENTRO DE INVESTIGACIONES METABOLIC</t>
+  </si>
+  <si>
+    <t>VIAMONTE 2278 80</t>
+  </si>
+  <si>
+    <t>2278</t>
+  </si>
+  <si>
+    <t>BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>Capital Federal</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>541139842826</t>
+  </si>
+  <si>
+    <t>M3045980</t>
+  </si>
+  <si>
+    <t>000000001228104267</t>
+  </si>
+  <si>
+    <t>1056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60-KITS</t>
+  </si>
+  <si>
+    <t>20251105</t>
+  </si>
+  <si>
+    <t>BUE</t>
+  </si>
+  <si>
+    <t>1228104452</t>
+  </si>
+  <si>
+    <t>CENTRO MEDICO PRIVADO CEMAIC</t>
+  </si>
+  <si>
+    <t>2941 AVENIDA MONSENOR PABLO CABRERA LAS MARGARITAS</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>5493512676228</t>
+  </si>
+  <si>
+    <t>M3045983</t>
+  </si>
+  <si>
+    <t>000000001228104452</t>
+  </si>
+  <si>
+    <t>5008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40-KITS</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>1228104455</t>
+  </si>
+  <si>
+    <t>CONSULTORIO DE INVESTIGACION CLINIC</t>
+  </si>
+  <si>
+    <t>EDUARDO ACEVEDO 42 1D</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>541553876603</t>
+  </si>
+  <si>
+    <t>M3045985</t>
+  </si>
+  <si>
+    <t>000000001228104455</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25-KITS</t>
+  </si>
+  <si>
+    <t>1228104611</t>
+  </si>
+  <si>
+    <t>M3046142</t>
+  </si>
+  <si>
+    <t>000000001228104611</t>
+  </si>
+  <si>
+    <t>1228104612</t>
+  </si>
+  <si>
+    <t>M3045643</t>
+  </si>
+  <si>
+    <t>000000001228104612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50-KITS/GEL PACKS</t>
+  </si>
+  <si>
+    <t>1228104615</t>
+  </si>
+  <si>
+    <t>M3045646</t>
+  </si>
+  <si>
+    <t>000000001228104615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20-KITS/GEL PACKS</t>
+  </si>
+  <si>
+    <t>1228144437</t>
+  </si>
+  <si>
+    <t>HOSPITAL ITALIANO DE BUENOS AIRES</t>
+  </si>
+  <si>
+    <t>PERON 4190 LEVEL 1 UNIDAD DE ENSAYOS CLINICOS PUER</t>
+  </si>
+  <si>
+    <t>541144E11</t>
+  </si>
+  <si>
+    <t>M3131679</t>
+  </si>
+  <si>
+    <t>000000001228144437</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9 KITS</t>
+  </si>
+  <si>
+    <t>1228153519</t>
+  </si>
+  <si>
+    <t>LUCIANA LAUDANNO</t>
+  </si>
+  <si>
+    <t>MONTEVIDEO 370</t>
+  </si>
+  <si>
+    <t>-32.957782</t>
+  </si>
+  <si>
+    <t>-60.630301</t>
+  </si>
+  <si>
+    <t>M3118600</t>
+  </si>
+  <si>
+    <t>000000001228153519</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 KITS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>ROOFTOP</t>
+  </si>
+  <si>
+    <t>1228231329</t>
+  </si>
+  <si>
+    <t>INSTITUTO PRIVADO KREMER</t>
+  </si>
+  <si>
+    <t>CORONEL PRINGLES 73</t>
+  </si>
+  <si>
+    <t>543515E11</t>
+  </si>
+  <si>
+    <t>M3131017</t>
+  </si>
+  <si>
+    <t>000000001228231329</t>
+  </si>
+  <si>
+    <t>5004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28-KITS/BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>20251106</t>
+  </si>
+  <si>
+    <t>1228246975</t>
+  </si>
+  <si>
+    <t>CENTRO CICBA</t>
+  </si>
+  <si>
+    <t>PASTEUR 720 1</t>
+  </si>
+  <si>
+    <t>549117E12</t>
+  </si>
+  <si>
+    <t>M3046014</t>
+  </si>
+  <si>
+    <t>000000001228246975</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>1228247216</t>
+  </si>
+  <si>
+    <t>STAT RESEARCH SA</t>
+  </si>
+  <si>
+    <t>AV CALLAO 875 3E AND F</t>
+  </si>
+  <si>
+    <t>549116E12</t>
+  </si>
+  <si>
+    <t>M3046135</t>
+  </si>
+  <si>
+    <t>000000001228247216</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BULK SUPPLIES (DG)</t>
+  </si>
+  <si>
+    <t>1228302291</t>
+  </si>
+  <si>
+    <t>CENTRO MEDICO VIAMONTE</t>
+  </si>
+  <si>
+    <t>AV. CORDOBA 2019</t>
+  </si>
+  <si>
+    <t>1144093746</t>
+  </si>
+  <si>
+    <t>M3062356</t>
+  </si>
+  <si>
+    <t>000000001228302291</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ECOA</t>
+  </si>
+  <si>
+    <t>Servicio de carga - RED AEREA</t>
+  </si>
+  <si>
+    <t>Servicio de carga - RED</t>
+  </si>
+  <si>
+    <t>1228405571</t>
+  </si>
+  <si>
+    <t>CENTRO MEDICO ARSEMA</t>
+  </si>
+  <si>
+    <t>AVENDA ALVAREZ THOMAS 1131 FLOOR 9 C</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>5447236969</t>
+  </si>
+  <si>
+    <t>M3045728</t>
+  </si>
+  <si>
+    <t>000000001228405571</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>20251108</t>
+  </si>
+  <si>
+    <t>1228405579</t>
+  </si>
+  <si>
+    <t>CENTRO DE INVESTIGACIONES MEDICAS T</t>
+  </si>
+  <si>
+    <t>LAVALLE 506</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL DE TUCUMAN</t>
+  </si>
+  <si>
+    <t>Tucumán</t>
+  </si>
+  <si>
+    <t>543814200180</t>
+  </si>
+  <si>
+    <t>M3046078</t>
+  </si>
+  <si>
+    <t>000000001228405579</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33-KITS/BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>TUC</t>
+  </si>
+  <si>
+    <t>1228405622</t>
+  </si>
+  <si>
+    <t>IPR INS PATOLOGIAS RESPIRATORIAS</t>
+  </si>
+  <si>
+    <t>BALCARCE NO 450</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>5493815037396</t>
+  </si>
+  <si>
+    <t>M3045734</t>
+  </si>
+  <si>
+    <t>000000001228405622</t>
+  </si>
+  <si>
+    <t>1228405623</t>
+  </si>
+  <si>
+    <t>CEDIC CENTRO DE INVESTIGACION CLINI</t>
+  </si>
+  <si>
+    <t>AV SANTA FE 1480 1ST</t>
+  </si>
+  <si>
+    <t>1480</t>
+  </si>
+  <si>
+    <t>5491155069437</t>
+  </si>
+  <si>
+    <t>M3046120</t>
+  </si>
+  <si>
+    <t>000000001228405623</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>1228405626</t>
+  </si>
+  <si>
+    <t>FAICEP FUNDACION PARA LA ASISTENCIA</t>
+  </si>
+  <si>
+    <t>MARCELO T DE ALVEAR 2349 GROUND FLOOR B</t>
+  </si>
+  <si>
+    <t>2349</t>
+  </si>
+  <si>
+    <t>5448270875</t>
+  </si>
+  <si>
+    <t>M3046118</t>
+  </si>
+  <si>
+    <t>000000001228405626</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1228405627</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE DIAGNOSTICO ABC</t>
+  </si>
+  <si>
+    <t>SALTA 2668</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>543414397379</t>
+  </si>
+  <si>
+    <t>M3046117</t>
+  </si>
+  <si>
+    <t>000000001228405627</t>
+  </si>
+  <si>
+    <t>1228405629</t>
+  </si>
+  <si>
+    <t>FUNDACION CIDEA</t>
+  </si>
+  <si>
+    <t>PARAGUAY 2035 2DO SUBSUELO 3ER CUERPO</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5491141837294</t>
+  </si>
+  <si>
+    <t>M3045738</t>
+  </si>
+  <si>
+    <t>000000001228405629</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13-KITS</t>
+  </si>
+  <si>
+    <t>1228405710</t>
+  </si>
+  <si>
+    <t>CARE CENTRO DE ALERGIA Y ENFERMEDAD</t>
+  </si>
+  <si>
+    <t>LUIS MARIA DRAGO 250 PB B AND 2ND DEPTO B</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>5491156572521</t>
+  </si>
+  <si>
+    <t>M3045735</t>
+  </si>
+  <si>
+    <t>000000001228405710</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1228552143</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE INVESTIGACIONES CLINICAS</t>
+  </si>
+  <si>
+    <t>DEAN FUNES 1161</t>
+  </si>
+  <si>
+    <t>-31.411469</t>
+  </si>
+  <si>
+    <t>-64.199839</t>
+  </si>
+  <si>
+    <t>103514253456</t>
+  </si>
+  <si>
+    <t>M3070671</t>
+  </si>
+  <si>
+    <t>000000001228552143</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 KITS</t>
+  </si>
+  <si>
+    <t>20251110</t>
+  </si>
+  <si>
+    <t>1228589931</t>
+  </si>
+  <si>
+    <t>INSARES</t>
+  </si>
+  <si>
+    <t>RONDEAU 335</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>542615634831</t>
+  </si>
+  <si>
+    <t>M3046105</t>
+  </si>
+  <si>
+    <t>000000001228589931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4-KITS/GEL PACKS</t>
+  </si>
+  <si>
+    <t>20251111</t>
+  </si>
+  <si>
+    <t>1228589934</t>
+  </si>
+  <si>
+    <t>CENTRO RESPIRATORIO INFANTIL SA</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>5493414215542</t>
+  </si>
+  <si>
+    <t>M3046102</t>
+  </si>
+  <si>
+    <t>000000001228589934</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71-KITS</t>
+  </si>
+  <si>
+    <t>1228590085</t>
+  </si>
+  <si>
+    <t>PARAGUAY 2035 3ER CUERPO 2DO SUBSUELO</t>
+  </si>
+  <si>
+    <t>CAPITAL FEDERAL</t>
+  </si>
+  <si>
+    <t>541135688598</t>
+  </si>
+  <si>
+    <t>M3046077</t>
+  </si>
+  <si>
+    <t>000000001228590085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-KITS/BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>1228619034</t>
+  </si>
+  <si>
+    <t>INSTITUTO DEL BUEN AIRE</t>
+  </si>
+  <si>
+    <t>JUNIN 2372</t>
+  </si>
+  <si>
+    <t>-31.63939558</t>
+  </si>
+  <si>
+    <t>-60.70177154</t>
+  </si>
+  <si>
+    <t>549343E12</t>
+  </si>
+  <si>
+    <t>M3045799</t>
+  </si>
+  <si>
+    <t>000000001228619034</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 KITS</t>
+  </si>
+  <si>
+    <t>SFN</t>
+  </si>
+  <si>
+    <t>1228619036</t>
+  </si>
+  <si>
+    <t>FUNDACION SCHERBOVSKY CENTRO MEDICO</t>
+  </si>
+  <si>
+    <t>542614E11</t>
+  </si>
+  <si>
+    <t>M3046104</t>
+  </si>
+  <si>
+    <t>000000001228619036</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 KITS / GEL PACKS</t>
+  </si>
+  <si>
+    <t>1228619037</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE INVESTIGACIONES CLINIC</t>
+  </si>
+  <si>
+    <t>549351E12</t>
+  </si>
+  <si>
+    <t>M3046103</t>
+  </si>
+  <si>
+    <t>000000001228619037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 KITS / BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>1228659801</t>
+  </si>
+  <si>
+    <t>FRAMINGHAM CENTRO MEDICO</t>
+  </si>
+  <si>
+    <t>CALLE 9 NO 431</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>LA PLATA</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>542214835656</t>
+  </si>
+  <si>
+    <t>M3063005</t>
+  </si>
+  <si>
+    <t>000000001228659801</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>1228670291</t>
+  </si>
+  <si>
+    <t>INSARES INSTITUTO DE SALUD RESPIRAT</t>
+  </si>
+  <si>
+    <t>JOSE RONDEAU 335</t>
+  </si>
+  <si>
+    <t>5492615634831</t>
+  </si>
+  <si>
+    <t>M3046092</t>
+  </si>
+  <si>
+    <t>000000001228670291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24-KITS/GEL PACKS</t>
+  </si>
+  <si>
+    <t>1228670294</t>
+  </si>
+  <si>
+    <t>HOSPITAL GENERAL DE AGUDOS JOSE MAR</t>
+  </si>
+  <si>
+    <t>URQUIZA 609 PISO 2</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>541140392060</t>
+  </si>
+  <si>
+    <t>M3046087</t>
+  </si>
+  <si>
+    <t>000000001228670294</t>
+  </si>
+  <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>1228670506</t>
+  </si>
+  <si>
+    <t>APRILLUS ASISTENCIA E INVESTIGACION</t>
+  </si>
+  <si>
+    <t>TERRADA 89</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>5491167415099</t>
+  </si>
+  <si>
+    <t>M3045743</t>
+  </si>
+  <si>
+    <t>000000001228670506</t>
+  </si>
+  <si>
+    <t>1406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32-KITS</t>
+  </si>
+  <si>
+    <t>1228676425</t>
+  </si>
+  <si>
+    <t>INSTITUTO AVE PULMO FUNDACION ENFIS</t>
+  </si>
+  <si>
+    <t>CARLOS ALVEAR 3345</t>
+  </si>
+  <si>
+    <t>3345</t>
+  </si>
+  <si>
+    <t>MAR DEL PLATA</t>
+  </si>
+  <si>
+    <t>5492235233296</t>
+  </si>
+  <si>
+    <t>M3120902</t>
+  </si>
+  <si>
+    <t>000000001228676425</t>
+  </si>
+  <si>
+    <t>7602</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-KITS/GEL PACKS</t>
+  </si>
+  <si>
+    <t>20251112</t>
+  </si>
+  <si>
+    <t>MDQ</t>
+  </si>
+  <si>
+    <t>1228712592</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE MED RESPIRATORIA</t>
+  </si>
+  <si>
+    <t>AVENIDA COLON 2057</t>
+  </si>
+  <si>
+    <t>-31.40571793</t>
+  </si>
+  <si>
+    <t>-64.20981507</t>
+  </si>
+  <si>
+    <t>543514888200</t>
+  </si>
+  <si>
+    <t>M3118688</t>
+  </si>
+  <si>
+    <t>000000001228712592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 457 KITS / DOCUMENTS</t>
+  </si>
+  <si>
+    <t>1228721441</t>
+  </si>
+  <si>
+    <t>CENTRO ESPECIALIDADES MEDICAS LOBOS</t>
+  </si>
+  <si>
+    <t>PRESIDENTE PERON 654</t>
+  </si>
+  <si>
+    <t>LOBOS</t>
+  </si>
+  <si>
+    <t>-35.19225937</t>
+  </si>
+  <si>
+    <t>-59.0970741</t>
+  </si>
+  <si>
+    <t>542227419356</t>
+  </si>
+  <si>
+    <t>M3118689</t>
+  </si>
+  <si>
+    <t>000000001228721441</t>
+  </si>
+  <si>
+    <t>7240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 KITS / BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>IBUE</t>
+  </si>
+  <si>
+    <t>1228735852</t>
+  </si>
+  <si>
+    <t>INSTITUTO CER SA</t>
+  </si>
+  <si>
+    <t>AVENIDA VICENTE LOPEZ 1441</t>
+  </si>
+  <si>
+    <t>1441</t>
+  </si>
+  <si>
+    <t>541152633113</t>
+  </si>
+  <si>
+    <t>M3063052</t>
+  </si>
+  <si>
+    <t>000000001228735852</t>
+  </si>
+  <si>
+    <t>1878</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16-KITS/BULK SUPPLIES</t>
+  </si>
+  <si>
+    <t>1228749936</t>
+  </si>
+  <si>
+    <t>ESPANA 931</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>549341E12</t>
+  </si>
+  <si>
+    <t>M3045744</t>
+  </si>
+  <si>
+    <t>000000001228749936</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>20251113</t>
+  </si>
+  <si>
+    <t>1228750162</t>
+  </si>
+  <si>
+    <t>PARAGUAY 2035 3RD BLDG 2ND BASEMENT</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>549114E12</t>
+  </si>
+  <si>
+    <t>M3045746</t>
+  </si>
+  <si>
+    <t>000000001228750162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15-KITS</t>
+  </si>
+  <si>
+    <t>1228831154</t>
+  </si>
+  <si>
+    <t>CENTRO DE ESPECIALIDADES MEDICAS LO</t>
+  </si>
+  <si>
+    <t>PATAGONES NO 94 GROUND FL</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>M3045689</t>
+  </si>
+  <si>
+    <t>000000001228831154</t>
+  </si>
+  <si>
+    <t>20251114</t>
+  </si>
+  <si>
+    <t>1228831354</t>
+  </si>
+  <si>
+    <t>INVESTIGACIONES EN PATOLOGIAS RESPI</t>
+  </si>
+  <si>
+    <t>BALCARCE 450 GROUND FL</t>
+  </si>
+  <si>
+    <t>5493815312192</t>
+  </si>
+  <si>
+    <t>M3046048</t>
+  </si>
+  <si>
+    <t>000000001228831354</t>
+  </si>
+  <si>
+    <t>1228910151</t>
+  </si>
+  <si>
+    <t>FUNDACION RESPIRAR</t>
+  </si>
+  <si>
+    <t>AV CABILDO 1548 1A</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>541170781548 EXT702</t>
+  </si>
+  <si>
+    <t>M3046036</t>
+  </si>
+  <si>
+    <t>000000001228910151</t>
+  </si>
+  <si>
+    <t>1426</t>
+  </si>
+  <si>
+    <t>1228910152</t>
+  </si>
+  <si>
+    <t>LUIS MARIA DRAGO 250 PB B AND 2 B</t>
+  </si>
+  <si>
+    <t>5491165430113</t>
+  </si>
+  <si>
+    <t>M3138106</t>
+  </si>
+  <si>
+    <t>000000001228910152</t>
+  </si>
+  <si>
+    <t>1228910155</t>
+  </si>
+  <si>
+    <t>MENDOZA 1229</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>5493416288069</t>
+  </si>
+  <si>
+    <t>M3045990</t>
+  </si>
+  <si>
+    <t>000000001228910155</t>
+  </si>
+  <si>
+    <t>1228910347</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE ESPECIALIDADES DE SALU</t>
+  </si>
+  <si>
+    <t>543416426843</t>
+  </si>
+  <si>
+    <t>M3045696</t>
+  </si>
+  <si>
+    <t>000000001228910347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4-KITS</t>
+  </si>
+  <si>
+    <t>1229671336</t>
+  </si>
+  <si>
+    <t>INSTITUO MEDICO ESPECI ALEXANDER FLEMING</t>
+  </si>
+  <si>
+    <t>CRAMER</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>-34.57174</t>
+  </si>
+  <si>
+    <t>-58.45159</t>
+  </si>
+  <si>
+    <t>11 4161-9822</t>
+  </si>
+  <si>
+    <t>BPHA035725</t>
+  </si>
+  <si>
+    <t>000000001229671336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVOICE S111119845 - PRA ID MRT84907-849007 - MAWB 001-18024090</t>
+  </si>
+  <si>
+    <t>20251127</t>
+  </si>
+  <si>
+    <t>Retirado</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>1229671811</t>
+  </si>
+  <si>
+    <t>IADT</t>
+  </si>
+  <si>
+    <t>MARCELO TORCUATO ALVEAR</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>11 4965-6500 EXT 7537</t>
+  </si>
+  <si>
+    <t>BPHA035825</t>
+  </si>
+  <si>
+    <t>000000001229671811</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVOICE S111119846 - PRA ID MRT84907-849007 - MAWB 001-18024090</t>
+  </si>
+  <si>
+    <t>1229672018</t>
+  </si>
+  <si>
+    <t>AV CABILDO</t>
+  </si>
+  <si>
+    <t>113669-5631</t>
+  </si>
+  <si>
+    <t>BPHA035925</t>
+  </si>
+  <si>
+    <t>000000001229672018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVOICE S111119855 - PRA ID MRT84907-849007 - MAWB 001-18024090</t>
+  </si>
+  <si>
+    <t>1229672137</t>
+  </si>
+  <si>
+    <t>CLINICA VIEDMA SA</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
   </si>
   <si>
     <t>253</t>
   </si>
   <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>0800</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Ocasa Inc (Miami)</t>
-  </si>
-  <si>
-    <t>543516886253</t>
-  </si>
-  <si>
-    <t>M3062423</t>
-  </si>
-  <si>
-    <t>000000001225396911</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>5001</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30-KITS/GEL PACKS</t>
-  </si>
-  <si>
-    <t>Envio</t>
-  </si>
-  <si>
-    <t>20250925</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carga kits  internacional</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>PENDIENTE DE DISTRIBUCION</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Carga kits  internacional</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1226167895</t>
-  </si>
-  <si>
-    <t>CLINICA DE NERFROLOGIA UROLOGIA Y E</t>
-  </si>
-  <si>
-    <t>AV GOBERNADOR FREYRE 3087</t>
-  </si>
-  <si>
-    <t>SANTA FE</t>
-  </si>
-  <si>
-    <t>Santa Fé</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>54 93426312996</t>
-  </si>
-  <si>
-    <t>M3131485</t>
-  </si>
-  <si>
-    <t>000000001226167895</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15 KITS AND SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251007</t>
-  </si>
-  <si>
-    <t>SFN</t>
-  </si>
-  <si>
-    <t>1227614192</t>
-  </si>
-  <si>
-    <t>FUNDACION ROSARINA DE NEUROREHABILI</t>
-  </si>
-  <si>
-    <t>LEANDRO N ALEM 1416</t>
-  </si>
-  <si>
-    <t>ROSARIO</t>
-  </si>
-  <si>
-    <t>5493414251527</t>
-  </si>
-  <si>
-    <t>M3131685</t>
-  </si>
-  <si>
-    <t>000000001227614192</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 KITS AND SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251029</t>
-  </si>
-  <si>
-    <t>ROS</t>
-  </si>
-  <si>
-    <t>1227808294</t>
-  </si>
-  <si>
-    <t>FERMIN ROMERO</t>
-  </si>
-  <si>
-    <t>PERDRIEL 74</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>BUENOS AIRES</t>
-  </si>
-  <si>
-    <t>Capital Federal</t>
-  </si>
-  <si>
-    <t>Ocasa Inc (New York)</t>
-  </si>
-  <si>
-    <t>5491161175831</t>
-  </si>
-  <si>
-    <t>N9043459</t>
-  </si>
-  <si>
-    <t>000000001227808294</t>
-  </si>
-  <si>
-    <t>1280</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9-KITS</t>
-  </si>
-  <si>
-    <t>20251031</t>
-  </si>
-  <si>
-    <t>BUE</t>
-  </si>
-  <si>
-    <t>1227936685</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE DEMATOLOGIA Y NEUMONOL</t>
-  </si>
-  <si>
-    <t>GASCON 79</t>
-  </si>
-  <si>
-    <t>CAPITAL FEDERAL</t>
-  </si>
-  <si>
-    <t>Ocasa Inc ( Los Angeles)</t>
-  </si>
-  <si>
-    <t>11164526615</t>
-  </si>
-  <si>
-    <t>M3070699</t>
-  </si>
-  <si>
-    <t>000000001227936685</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21 KITS / BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251103</t>
-  </si>
-  <si>
-    <t>1227969893</t>
-  </si>
-  <si>
-    <t>HOSPITAL DE NINOS DE LA SANTISIMA TRINID</t>
-  </si>
-  <si>
-    <t>BAJADA PUCARA 787</t>
-  </si>
-  <si>
-    <t>5493515449625</t>
-  </si>
-  <si>
-    <t>M3062916</t>
-  </si>
-  <si>
-    <t>000000001227969893</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8-KITS</t>
-  </si>
-  <si>
-    <t>1227996287</t>
-  </si>
-  <si>
-    <t>CEDIC</t>
-  </si>
-  <si>
-    <t>1480 AVENIDA SANTA FE PISO 1 COMUNA 2</t>
-  </si>
-  <si>
-    <t>1480</t>
-  </si>
-  <si>
-    <t>541148236838</t>
-  </si>
-  <si>
-    <t>M3045808</t>
-  </si>
-  <si>
-    <t>000000001227996287</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40-KITS</t>
-  </si>
-  <si>
-    <t>20251104</t>
-  </si>
-  <si>
-    <t>1227996594</t>
-  </si>
-  <si>
-    <t>FISHER CLINICAL SERVICES ARGENTINA</t>
-  </si>
-  <si>
-    <t>AV DEL CAMPO 1550 60</t>
-  </si>
-  <si>
-    <t>543424553650</t>
-  </si>
-  <si>
-    <t>M3045809</t>
-  </si>
-  <si>
-    <t>000000001227996594</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13-KITS/BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>1228089433</t>
-  </si>
-  <si>
-    <t>AV SANTA FE 1480 1 ER PISO</t>
-  </si>
-  <si>
-    <t>5491158202922</t>
-  </si>
-  <si>
-    <t>M3131028</t>
-  </si>
-  <si>
-    <t>000000001228089433</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20-KITS</t>
-  </si>
-  <si>
-    <t>1228089471</t>
-  </si>
-  <si>
-    <t>M3131026</t>
-  </si>
-  <si>
-    <t>000000001228089471</t>
-  </si>
-  <si>
-    <t>1228099619</t>
-  </si>
-  <si>
-    <t>CENTRO MEDICO ARSEMA</t>
-  </si>
-  <si>
-    <t>ALVAREZ THOMAS 1131 9 C, COLEGIALES</t>
-  </si>
-  <si>
-    <t>5491135228556</t>
-  </si>
-  <si>
-    <t>N9043458</t>
-  </si>
-  <si>
-    <t>000000001228099619</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18 KITS</t>
-  </si>
-  <si>
-    <t>1228231324</t>
-  </si>
-  <si>
-    <t>CONSULTORIO MEDICO DRA MARIANA RIVE</t>
-  </si>
-  <si>
-    <t>AV CABILDO 1536 5 B</t>
-  </si>
-  <si>
-    <t>549112E12</t>
-  </si>
-  <si>
-    <t>M3131022</t>
-  </si>
-  <si>
-    <t>000000001228231324</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10-KITS/GEL PACKS</t>
-  </si>
-  <si>
-    <t>20251106</t>
-  </si>
-  <si>
-    <t>1228231327</t>
-  </si>
-  <si>
-    <t>INVESTIGACIONES PATOLOGIAS RESPIRAT</t>
-  </si>
-  <si>
-    <t>BALCARCE 450</t>
-  </si>
-  <si>
-    <t>TUCUMAN</t>
-  </si>
-  <si>
-    <t>Tucumán</t>
-  </si>
-  <si>
-    <t>3812545409</t>
-  </si>
-  <si>
-    <t>M3131019</t>
-  </si>
-  <si>
-    <t>000000001228231327</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10-KITS</t>
-  </si>
-  <si>
-    <t>TUC</t>
-  </si>
-  <si>
-    <t>1228245942</t>
-  </si>
-  <si>
-    <t>CENTRO RESPIRATORIO INFANTIL</t>
-  </si>
-  <si>
-    <t>MONTEVIDEO 370</t>
-  </si>
-  <si>
-    <t>549E12</t>
-  </si>
-  <si>
-    <t>M3046010</t>
-  </si>
-  <si>
-    <t>000000001228245942</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48-KITS</t>
-  </si>
-  <si>
-    <t>1228247215</t>
-  </si>
-  <si>
-    <t>FUNDACION CORI PARA LA INVESTIGACIO</t>
-  </si>
-  <si>
-    <t>DORREGO 269</t>
-  </si>
-  <si>
-    <t>LA RIOJA</t>
-  </si>
-  <si>
-    <t>La Rioja</t>
-  </si>
-  <si>
-    <t>543804E11</t>
-  </si>
-  <si>
-    <t>M3046137</t>
-  </si>
-  <si>
-    <t>000000001228247215</t>
-  </si>
-  <si>
-    <t>5300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>IRJ</t>
-  </si>
-  <si>
-    <t>1228305595</t>
-  </si>
-  <si>
-    <t>IAAER INSTITUTO DE ASMA ALERGIA Y ENFERM</t>
-  </si>
-  <si>
-    <t>JUNIN 1933</t>
-  </si>
-  <si>
-    <t>CORRIENTES</t>
-  </si>
-  <si>
-    <t>Corrientes</t>
-  </si>
-  <si>
-    <t>5493794734545</t>
-  </si>
-  <si>
-    <t>M3062952</t>
-  </si>
-  <si>
-    <t>000000001228305595</t>
-  </si>
-  <si>
-    <t>3400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22-KITS/BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>CNQ</t>
-  </si>
-  <si>
-    <t>1228310102</t>
-  </si>
-  <si>
-    <t>FUNDACION SCHERBOVSKY</t>
-  </si>
-  <si>
-    <t>JOSE FEDERICO MORENO 2760</t>
-  </si>
-  <si>
-    <t>2760</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>5492615448353</t>
-  </si>
-  <si>
-    <t>M3131013</t>
-  </si>
-  <si>
-    <t>000000001228310102</t>
-  </si>
-  <si>
-    <t>5500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20-KITS//GEL PACKS</t>
-  </si>
-  <si>
-    <t>MDZ</t>
-  </si>
-  <si>
-    <t>1228310109</t>
-  </si>
-  <si>
-    <t>CIMEL</t>
-  </si>
-  <si>
-    <t>TUCUMAN 1314</t>
-  </si>
-  <si>
-    <t>1314</t>
-  </si>
-  <si>
-    <t>LANUS</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>541142493412</t>
-  </si>
-  <si>
-    <t>M3131007</t>
-  </si>
-  <si>
-    <t>000000001228310109</t>
-  </si>
-  <si>
-    <t>1820</t>
-  </si>
-  <si>
-    <t>GBAS</t>
-  </si>
-  <si>
-    <t>1228321831</t>
-  </si>
-  <si>
-    <t>HOSPITAL ITALIANO DE BUENOS AIRES C</t>
-  </si>
-  <si>
-    <t>4190 TTE GRAL JUAN DOMINGO PERO 1 O PISO SECTRETAR</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>541149590200 EXT8159</t>
-  </si>
-  <si>
-    <t>M3046006</t>
-  </si>
-  <si>
-    <t>000000001228321831</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38-KITS</t>
-  </si>
-  <si>
-    <t>1228321969</t>
-  </si>
-  <si>
-    <t>INSTITUTO DE ASMA ALERGIA Y ENFERME</t>
-  </si>
-  <si>
-    <t>1933</t>
-  </si>
-  <si>
-    <t>5493704308307</t>
-  </si>
-  <si>
-    <t>M3046004</t>
-  </si>
-  <si>
-    <t>000000001228321969</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4-KITS</t>
-  </si>
-  <si>
-    <t>1228392386</t>
-  </si>
-  <si>
-    <t>M3130998</t>
-  </si>
-  <si>
-    <t>000000001228392386</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20-KITS/GEL PACKS</t>
-  </si>
-  <si>
-    <t>20251107</t>
-  </si>
-  <si>
-    <t>1228405368</t>
-  </si>
-  <si>
-    <t>DERMA INTERNACIONAL</t>
-  </si>
-  <si>
-    <t>VIRREY DEL PINO 2456 PISO 7</t>
-  </si>
-  <si>
-    <t>2456</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5491176196309</t>
-  </si>
-  <si>
-    <t>M3045793</t>
-  </si>
-  <si>
-    <t>000000001228405368</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 36-KITS/GEL PACKS</t>
-  </si>
-  <si>
-    <t>20251108</t>
-  </si>
-  <si>
-    <t>1228405575</t>
-  </si>
-  <si>
-    <t>CENTRO DE INVESTIGACIONES MEDICAS T</t>
-  </si>
-  <si>
-    <t>LAVALLE 506</t>
-  </si>
-  <si>
-    <t>506</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL DE TUCUMAN</t>
-  </si>
-  <si>
-    <t>543814200180</t>
-  </si>
-  <si>
-    <t>M3045730</t>
-  </si>
-  <si>
-    <t>000000001228405575</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BULK SUPPLIES(DG)</t>
-  </si>
-  <si>
-    <t>1228405625</t>
-  </si>
-  <si>
-    <t>INAER INVESTIGACION EN ALERGIA Y EN</t>
-  </si>
-  <si>
-    <t>ARENALES 3146 1 FLOOR B</t>
-  </si>
-  <si>
-    <t>3146</t>
-  </si>
-  <si>
-    <t>5491148291822</t>
-  </si>
-  <si>
-    <t>M3046119</t>
-  </si>
-  <si>
-    <t>000000001228405625</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BULK SUPPLIES (DG)</t>
-  </si>
-  <si>
-    <t>1228405707</t>
-  </si>
-  <si>
-    <t>FUNDACION CIDEA</t>
-  </si>
-  <si>
-    <t>PARAGUAY 2035 2DO SUBSUELO 3ER CUERPO</t>
-  </si>
-  <si>
-    <t>2035</t>
-  </si>
-  <si>
-    <t>5491141837294</t>
-  </si>
-  <si>
-    <t>M3046113</t>
-  </si>
-  <si>
-    <t>000000001228405707</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1228427079</t>
-  </si>
-  <si>
-    <t>CONSULTORIOS MEDICOS DEL BUEN AIRE</t>
-  </si>
-  <si>
-    <t>FIRZ ROY N. 2468, 1 FLOOR</t>
-  </si>
-  <si>
-    <t>CABA</t>
-  </si>
-  <si>
-    <t>5491158451395</t>
-  </si>
-  <si>
-    <t>M3045731</t>
-  </si>
-  <si>
-    <t>000000001228427079</t>
-  </si>
-  <si>
-    <t>C1425FVH</t>
-  </si>
-  <si>
-    <t>1228533802</t>
-  </si>
-  <si>
-    <t>IQVIA RDS ARGENTINA SRL</t>
-  </si>
-  <si>
-    <t>AV TRIUNVIRATO 3030</t>
-  </si>
-  <si>
-    <t>-34.5845288</t>
-  </si>
-  <si>
-    <t>-58.46531725</t>
-  </si>
-  <si>
-    <t>30707611479</t>
-  </si>
-  <si>
-    <t>C190644</t>
-  </si>
-  <si>
-    <t>000000001228533802</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20251110</t>
-  </si>
-  <si>
-    <t>Servicio de carga - RED AEREA</t>
-  </si>
-  <si>
-    <t>Servicio de carga - RED</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1228550511</t>
-  </si>
-  <si>
-    <t>C190646</t>
-  </si>
-  <si>
-    <t>000000001228550511</t>
-  </si>
-  <si>
-    <t>1228589933</t>
-  </si>
-  <si>
-    <t>M3045671</t>
-  </si>
-  <si>
-    <t>000000001228589933</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28-KITS/BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251111</t>
-  </si>
-  <si>
-    <t>1228589992</t>
-  </si>
-  <si>
-    <t>INSTITUTO MEDICO RIO CUARTO</t>
-  </si>
-  <si>
-    <t>HIPOLITO IRIGOYEN 1020</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>RIO CUARTO</t>
-  </si>
-  <si>
-    <t>543584679333</t>
-  </si>
-  <si>
-    <t>M3046093</t>
-  </si>
-  <si>
-    <t>000000001228589992</t>
-  </si>
-  <si>
-    <t>5800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 13-KITS/GEL PACKS</t>
-  </si>
-  <si>
-    <t>RCU</t>
-  </si>
-  <si>
-    <t>1228735780</t>
-  </si>
-  <si>
-    <t>INECO NEUROCIENCIAS ORONO</t>
-  </si>
-  <si>
-    <t>BV ORONO 1431</t>
-  </si>
-  <si>
-    <t>-32.9514796</t>
-  </si>
-  <si>
-    <t>-60.6549133</t>
-  </si>
-  <si>
-    <t>549341E12</t>
-  </si>
-  <si>
-    <t>M3045291</t>
-  </si>
-  <si>
-    <t>000000001228735780</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16 KITS AND BULK SUPPLIES</t>
-  </si>
-  <si>
-    <t>20251112</t>
-  </si>
-  <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>ROOFTOP</t>
-  </si>
-  <si>
-    <t>1229598372</t>
-  </si>
-  <si>
-    <t>Centro Oncologico Korben</t>
-  </si>
-  <si>
-    <t>CIUDAD DE LA PAZ</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>-34.57412</t>
-  </si>
-  <si>
-    <t>-58.44193</t>
-  </si>
-  <si>
-    <t>+54 11 5950-7952</t>
-  </si>
-  <si>
-    <t>BPHA036925</t>
-  </si>
-  <si>
-    <t>000000001229598372</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRA ID MRT84907-849007 - GUIA 001-18793143 - INVOICE S111120047</t>
-  </si>
-  <si>
-    <t>20251126</t>
-  </si>
-  <si>
-    <t>Retirado</t>
-  </si>
-  <si>
-    <t>HERE</t>
+    <t>Rio Negro</t>
+  </si>
+  <si>
+    <t>2920-70-8993</t>
+  </si>
+  <si>
+    <t>BPHA036025</t>
+  </si>
+  <si>
+    <t>000000001229672137</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVOICE S111119862 - PRA ID MRT84907-849007 - MAWB 001-18024090</t>
+  </si>
+  <si>
+    <t>VDM</t>
   </si>
 </sst>
 </file>
@@ -1974,8 +2370,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2241C074-5D55-4172-9106-BC77E425EF8E}">
-  <dimension ref="A1:AX33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18092AC1-D8F0-49E6-8032-059105905CC4}">
+  <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1984,7 +2380,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
@@ -2003,9 +2399,8 @@
     <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -2218,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="N2" s="3">
-        <v>0.128</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="O2" s="3">
-        <v>24.334</v>
+        <v>9.125</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>59</v>
@@ -2232,7 +2627,7 @@
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="4">
-        <v>315.3</v>
+        <v>74.8</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -2298,18 +2693,18 @@
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
@@ -2324,36 +2719,36 @@
         <v>58</v>
       </c>
       <c r="N3" s="3">
-        <v>2.4E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="O3" s="3">
-        <v>3.2690000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="4">
-        <v>22.3</v>
+        <v>116.04</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
@@ -2361,16 +2756,16 @@
       </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AI3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1" t="s">
@@ -2378,7 +2773,7 @@
       </c>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>71</v>
@@ -2401,21 +2796,21 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
@@ -2430,36 +2825,36 @@
         <v>58</v>
       </c>
       <c r="N4" s="3">
-        <v>0.01</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="O4" s="3">
-        <v>1.0620000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="4">
-        <v>1.4</v>
+        <v>116.04</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
@@ -2467,16 +2862,16 @@
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="AI4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
@@ -2484,7 +2879,7 @@
       </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>71</v>
@@ -2507,23 +2902,23 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
@@ -2538,36 +2933,36 @@
         <v>58</v>
       </c>
       <c r="N5" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="O5" s="3">
-        <v>2.129</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="4">
-        <v>29.88</v>
+        <v>24</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
@@ -2575,16 +2970,16 @@
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
@@ -2592,7 +2987,7 @@
       </c>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>71</v>
@@ -2615,21 +3010,23 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
@@ -2644,36 +3041,36 @@
         <v>58</v>
       </c>
       <c r="N6" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="O6" s="3">
-        <v>3.9</v>
+        <v>32.642000000000003</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="4">
-        <v>214.57</v>
+        <v>692.5</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
@@ -2681,16 +3078,16 @@
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
@@ -2698,7 +3095,7 @@
       </c>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO6" s="1" t="s">
         <v>71</v>
@@ -2721,21 +3118,23 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
@@ -2750,13 +3149,13 @@
         <v>58</v>
       </c>
       <c r="N7" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="O7" s="3">
-        <v>1.68</v>
+        <v>22.835999999999999</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
@@ -2764,22 +3163,22 @@
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="4">
-        <v>45.81</v>
+        <v>516.4</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
@@ -2787,16 +3186,16 @@
       </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1" t="s">
@@ -2804,7 +3203,7 @@
       </c>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="AO7" s="1" t="s">
         <v>71</v>
@@ -2827,23 +3226,23 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
@@ -2858,10 +3257,10 @@
         <v>58</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="O8" s="3">
-        <v>22.655000000000001</v>
+        <v>14.21</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>59</v>
@@ -2872,22 +3271,22 @@
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="4">
-        <v>516.4</v>
+        <v>322.05</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
@@ -2895,16 +3294,16 @@
       </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1" t="s">
@@ -2912,7 +3311,7 @@
       </c>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>71</v>
@@ -2935,21 +3334,23 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
@@ -2964,10 +3365,10 @@
         <v>58</v>
       </c>
       <c r="N9" s="3">
-        <v>0.128</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="O9" s="3">
-        <v>14.891</v>
+        <v>12.076000000000001</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>59</v>
@@ -2978,22 +3379,22 @@
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="4">
-        <v>357.79</v>
+        <v>261</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
@@ -3001,16 +3402,16 @@
       </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1" t="s">
@@ -3018,7 +3419,7 @@
       </c>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="1" t="s">
         <v>71</v>
@@ -3041,23 +3442,23 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
@@ -3072,13 +3473,13 @@
         <v>58</v>
       </c>
       <c r="N10" s="3">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>8.0809999999999995</v>
+        <v>62.744999999999997</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
@@ -3086,22 +3487,22 @@
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="4">
-        <v>96.4</v>
+        <v>733.1</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
@@ -3109,16 +3510,16 @@
       </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH10" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1" t="s">
@@ -3126,7 +3527,7 @@
       </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AO10" s="1" t="s">
         <v>71</v>
@@ -3149,23 +3550,23 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
@@ -3180,13 +3581,13 @@
         <v>58</v>
       </c>
       <c r="N11" s="3">
-        <v>0.183</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="O11" s="3">
-        <v>8.0359999999999996</v>
+        <v>24.062000000000001</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
@@ -3194,22 +3595,22 @@
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="4">
-        <v>96.4</v>
+        <v>275.2</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
@@ -3217,16 +3618,16 @@
       </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1" t="s">
@@ -3234,7 +3635,7 @@
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AO11" s="1" t="s">
         <v>71</v>
@@ -3257,21 +3658,21 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
@@ -3286,36 +3687,36 @@
         <v>58</v>
       </c>
       <c r="N12" s="3">
-        <v>8.1000000000000003E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="O12" s="3">
-        <v>4.1269999999999998</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="4">
-        <v>56.64</v>
+        <v>9</v>
       </c>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
@@ -3323,16 +3724,16 @@
       </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
@@ -3340,7 +3741,7 @@
       </c>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="1" t="s">
         <v>71</v>
@@ -3363,23 +3764,21 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>74</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
@@ -3394,36 +3793,40 @@
         <v>58</v>
       </c>
       <c r="N13" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>0.09</v>
       </c>
       <c r="O13" s="3">
-        <v>7.7629999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="4">
-        <v>45.9</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="W13" s="1" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
@@ -3431,16 +3834,16 @@
       </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1" t="s">
@@ -3448,7 +3851,7 @@
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AO13" s="1" t="s">
         <v>71</v>
@@ -3464,30 +3867,36 @@
         <v>74</v>
       </c>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
+      <c r="AU13" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
+      <c r="AW13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
@@ -3502,13 +3911,13 @@
         <v>58</v>
       </c>
       <c r="N14" s="3">
-        <v>0.04</v>
+        <v>0.128</v>
       </c>
       <c r="O14" s="3">
-        <v>1.6339999999999999</v>
+        <v>21.928000000000001</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
@@ -3516,22 +3925,22 @@
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="4">
-        <v>19.7</v>
+        <v>128.94</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
@@ -3539,16 +3948,16 @@
       </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1" t="s">
@@ -3556,7 +3965,7 @@
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="AO14" s="1" t="s">
         <v>71</v>
@@ -3579,23 +3988,23 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -3610,13 +4019,13 @@
         <v>58</v>
       </c>
       <c r="N15" s="3">
-        <v>0.183</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O15" s="3">
-        <v>9.1709999999999994</v>
+        <v>0.182</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
@@ -3624,22 +4033,22 @@
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="4">
-        <v>180.09</v>
+        <v>0.27</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
@@ -3647,16 +4056,16 @@
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="AH15" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
@@ -3664,7 +4073,7 @@
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AO15" s="1" t="s">
         <v>71</v>
@@ -3687,23 +4096,23 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
@@ -3721,10 +4130,10 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="O16" s="3">
-        <v>0.36299999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
@@ -3732,22 +4141,22 @@
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="4">
-        <v>6.7</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
@@ -3755,16 +4164,16 @@
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AI16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
@@ -3772,7 +4181,7 @@
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="AO16" s="1" t="s">
         <v>71</v>
@@ -3795,21 +4204,21 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
@@ -3824,13 +4233,13 @@
         <v>58</v>
       </c>
       <c r="N17" s="3">
-        <v>0.128</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="O17" s="3">
-        <v>19.385999999999999</v>
+        <v>14.182</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
@@ -3838,47 +4247,47 @@
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="4">
-        <v>143.6</v>
+        <v>3588.53</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="AH17" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="AO17" s="1" t="s">
         <v>71</v>
@@ -3887,7 +4296,7 @@
         <v>72</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="AR17" s="1"/>
       <c r="AS17" s="1" t="s">
@@ -3901,23 +4310,23 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
@@ -3932,10 +4341,10 @@
         <v>58</v>
       </c>
       <c r="N18" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O18" s="3">
-        <v>17.706</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>59</v>
@@ -3946,22 +4355,22 @@
       </c>
       <c r="S18" s="1"/>
       <c r="T18" s="4">
-        <v>80.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
@@ -3969,16 +4378,16 @@
       </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AH18" s="1" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
@@ -3986,7 +4395,7 @@
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="AO18" s="1" t="s">
         <v>71</v>
@@ -4009,23 +4418,23 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
@@ -4040,13 +4449,13 @@
         <v>58</v>
       </c>
       <c r="N19" s="3">
-        <v>0.04</v>
+        <v>0.128</v>
       </c>
       <c r="O19" s="3">
-        <v>1.8160000000000001</v>
+        <v>27.33</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
@@ -4054,22 +4463,22 @@
       </c>
       <c r="S19" s="1"/>
       <c r="T19" s="4">
-        <v>27.6</v>
+        <v>540.24</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
@@ -4077,16 +4486,16 @@
       </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1" t="s">
@@ -4094,7 +4503,7 @@
       </c>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AO19" s="1" t="s">
         <v>71</v>
@@ -4117,23 +4526,23 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>104</v>
+        <v>213</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
@@ -4148,13 +4557,13 @@
         <v>58</v>
       </c>
       <c r="N20" s="3">
-        <v>0.183</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O20" s="3">
-        <v>6.1289999999999996</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1" t="s">
@@ -4162,22 +4571,22 @@
       </c>
       <c r="S20" s="1"/>
       <c r="T20" s="4">
-        <v>253.56</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
@@ -4185,16 +4594,16 @@
       </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1" t="s">
@@ -4202,7 +4611,7 @@
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="AO20" s="1" t="s">
         <v>71</v>
@@ -4225,23 +4634,23 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
@@ -4256,13 +4665,13 @@
         <v>58</v>
       </c>
       <c r="N21" s="3">
-        <v>1.6E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O21" s="3">
-        <v>1.3169999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1" t="s">
@@ -4270,22 +4679,22 @@
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="4">
-        <v>58.16</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
@@ -4293,16 +4702,16 @@
       </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
@@ -4310,7 +4719,7 @@
       </c>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="AO21" s="1" t="s">
         <v>71</v>
@@ -4333,23 +4742,23 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
@@ -4364,10 +4773,10 @@
         <v>58</v>
       </c>
       <c r="N22" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O22" s="3">
-        <v>15.436</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>59</v>
@@ -4378,22 +4787,22 @@
       </c>
       <c r="S22" s="1"/>
       <c r="T22" s="4">
-        <v>80.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
@@ -4401,16 +4810,16 @@
       </c>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>257</v>
+        <v>187</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1" t="s">
@@ -4418,7 +4827,7 @@
       </c>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="AO22" s="1" t="s">
         <v>71</v>
@@ -4441,23 +4850,23 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
@@ -4472,13 +4881,13 @@
         <v>58</v>
       </c>
       <c r="N23" s="3">
-        <v>0.152</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O23" s="3">
-        <v>30.282</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1" t="s">
@@ -4486,22 +4895,22 @@
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="4">
-        <v>542.6</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
@@ -4509,16 +4918,16 @@
       </c>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1" t="s">
@@ -4526,7 +4935,7 @@
       </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AO23" s="1" t="s">
         <v>71</v>
@@ -4549,23 +4958,23 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>273</v>
+        <v>102</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
@@ -4580,13 +4989,13 @@
         <v>58</v>
       </c>
       <c r="N24" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>0.04</v>
       </c>
       <c r="O24" s="3">
-        <v>0.318</v>
+        <v>3.133</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1" t="s">
@@ -4594,22 +5003,22 @@
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="4">
-        <v>74.900000000000006</v>
+        <v>138.35</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
@@ -4617,16 +5026,16 @@
       </c>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1" t="s">
@@ -4634,7 +5043,7 @@
       </c>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="AO24" s="1" t="s">
         <v>71</v>
@@ -4657,23 +5066,23 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -4694,7 +5103,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1" t="s">
@@ -4707,17 +5116,17 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
@@ -4725,16 +5134,16 @@
       </c>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1" t="s">
@@ -4742,7 +5151,7 @@
       </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO25" s="1" t="s">
         <v>71</v>
@@ -4765,23 +5174,21 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>290</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
@@ -4796,36 +5203,40 @@
         <v>58</v>
       </c>
       <c r="N26" s="3">
-        <v>0.04</v>
+        <v>0.152</v>
       </c>
       <c r="O26" s="3">
-        <v>2.1339999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="4">
-        <v>368.08</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+        <v>467.67</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="W26" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
@@ -4833,16 +5244,16 @@
       </c>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1" t="s">
@@ -4850,7 +5261,7 @@
       </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AO26" s="1" t="s">
         <v>71</v>
@@ -4868,26 +5279,32 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
       <c r="AV26" s="1"/>
-      <c r="AW26" s="1"/>
-      <c r="AX26" s="1"/>
+      <c r="AW26" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>280</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -4902,13 +5319,13 @@
         <v>58</v>
       </c>
       <c r="N27" s="3">
-        <v>7.0000000000000001E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="O27" s="3">
-        <v>0.27200000000000002</v>
+        <v>3.45</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1" t="s">
@@ -4916,22 +5333,22 @@
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="4">
-        <v>74.900000000000006</v>
+        <v>119.96</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
@@ -4939,16 +5356,16 @@
       </c>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1" t="s">
@@ -4956,7 +5373,7 @@
       </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AO27" s="1" t="s">
         <v>71</v>
@@ -4979,21 +5396,23 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
@@ -5008,13 +5427,13 @@
         <v>58</v>
       </c>
       <c r="N28" s="3">
-        <v>1.6E-2</v>
+        <v>0.251</v>
       </c>
       <c r="O28" s="3">
-        <v>0.5</v>
+        <v>19.975999999999999</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1" t="s">
@@ -5022,51 +5441,47 @@
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="4">
-        <v>77.75</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>1356.98</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>202</v>
+        <v>293</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="AK28" s="1"/>
       <c r="AL28" s="1" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>71</v>
@@ -5075,37 +5490,35 @@
         <v>72</v>
       </c>
       <c r="AQ28" s="1" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="AR28" s="1"/>
       <c r="AS28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AT28" s="1"/>
-      <c r="AU28" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="AU28" s="1"/>
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
@@ -5120,13 +5533,13 @@
         <v>58</v>
       </c>
       <c r="N29" s="3">
-        <v>0.09</v>
+        <v>0.128</v>
       </c>
       <c r="O29" s="3">
-        <v>11</v>
+        <v>15.3</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1" t="s">
@@ -5134,51 +5547,47 @@
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="4">
-        <v>517.79999999999995</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v>336.08</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1" t="s">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>71</v>
@@ -5187,39 +5596,35 @@
         <v>72</v>
       </c>
       <c r="AQ29" s="1" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="AR29" s="1"/>
       <c r="AS29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AT29" s="1"/>
-      <c r="AU29" s="1" t="s">
-        <v>315</v>
-      </c>
+      <c r="AU29" s="1"/>
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
@@ -5234,10 +5639,10 @@
         <v>58</v>
       </c>
       <c r="N30" s="3">
-        <v>0.128</v>
+        <v>0.104</v>
       </c>
       <c r="O30" s="3">
-        <v>24.879000000000001</v>
+        <v>5.5389999999999997</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>59</v>
@@ -5248,22 +5653,26 @@
       </c>
       <c r="S30" s="1"/>
       <c r="T30" s="4">
-        <v>452.12</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+        <v>331.76</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="W30" s="1" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
@@ -5271,16 +5680,16 @@
       </c>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1" t="s">
@@ -5288,7 +5697,7 @@
       </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1" t="s">
-        <v>112</v>
+        <v>311</v>
       </c>
       <c r="AO30" s="1" t="s">
         <v>71</v>
@@ -5304,30 +5713,32 @@
         <v>74</v>
       </c>
       <c r="AT30" s="1"/>
-      <c r="AU30" s="1"/>
+      <c r="AU30" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>327</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>328</v>
+        <v>90</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -5342,10 +5753,10 @@
         <v>58</v>
       </c>
       <c r="N31" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="O31" s="3">
-        <v>10.986000000000001</v>
+        <v>4.9029999999999996</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>59</v>
@@ -5356,22 +5767,22 @@
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="4">
-        <v>102.19</v>
+        <v>180.2</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
@@ -5379,16 +5790,16 @@
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="AI31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1" t="s">
@@ -5396,7 +5807,7 @@
       </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1" t="s">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="AO31" s="1" t="s">
         <v>71</v>
@@ -5419,21 +5830,21 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
@@ -5448,13 +5859,13 @@
         <v>58</v>
       </c>
       <c r="N32" s="3">
-        <v>0.315</v>
+        <v>0.104</v>
       </c>
       <c r="O32" s="3">
-        <v>23.138999999999999</v>
+        <v>6.1289999999999996</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>263</v>
+        <v>59</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1" t="s">
@@ -5462,26 +5873,26 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="4">
-        <v>189.5</v>
+        <v>511.15</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>339</v>
+        <v>271</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
@@ -5489,16 +5900,16 @@
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="AH32" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="AI32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1" t="s">
@@ -5506,7 +5917,7 @@
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AO32" s="1" t="s">
         <v>71</v>
@@ -5525,29 +5936,31 @@
       <c r="AU32" s="1"/>
       <c r="AV32" s="1"/>
       <c r="AW32" s="1" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
       <c r="AX32" s="1" t="s">
-        <v>346</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>327</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
@@ -5562,13 +5975,13 @@
         <v>58</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="O33" s="3">
-        <v>10</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1" t="s">
@@ -5576,53 +5989,47 @@
       </c>
       <c r="S33" s="1"/>
       <c r="T33" s="4">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>352</v>
-      </c>
+        <v>49.3</v>
+      </c>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="1" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="AH33" s="1" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="AI33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="AK33" s="1"/>
       <c r="AL33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AM33" s="1"/>
       <c r="AN33" s="1" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="AO33" s="1" t="s">
         <v>71</v>
@@ -5631,7 +6038,7 @@
         <v>72</v>
       </c>
       <c r="AQ33" s="1" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="AR33" s="1"/>
       <c r="AS33" s="1" t="s">
@@ -5640,12 +6047,2076 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1"/>
-      <c r="AW33" s="1" t="s">
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="O34" s="3">
+        <v>19.385999999999999</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="4">
+        <v>209.36</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="4">
+        <v>28.36</v>
+      </c>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="O36" s="3">
+        <v>24.742999999999999</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="4">
+        <v>172.77</v>
+      </c>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AX33" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="B37" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>8.49</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="4">
+        <v>40.46</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="O38" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="4">
+        <v>41.17</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="4">
+        <v>48.27</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="AI39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="O40" s="3">
+        <v>25.832999999999998</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="4">
+        <v>903.34</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="4">
+        <v>57.35</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AH42" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.182</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="4">
+        <v>11.28</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="4">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="4">
+        <v>0</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF50" s="1"/>
+      <c r="AG50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ50" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM50" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="4">
+        <v>0</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF51" s="1"/>
+      <c r="AG51" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ51" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM51" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="4">
+        <v>0</v>
+      </c>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AO52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1"/>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5654,7 +8125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5D8909-F2EB-417A-B0AE-CFB7748462F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9A85B-BAC8-4F2A-B802-6D94FC1FCDE9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5666,7 +8137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE1CDBF-2A8C-4DC7-9F7E-1224124CC402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F1B5C8-2C35-401C-AF44-09368B90E508}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
